--- a/TabelasHosp.xlsx
+++ b/TabelasHosp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianno\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianno\OneDrive\Área de Trabalho\Hosp-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAE5603-FC86-4914-9839-36D736065E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321F67F-75F6-4FF0-95B7-DE548045890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0864B4E6-CEDF-4B79-94A6-5F7A3C9079B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>Medico</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>UniqueKey</t>
+  </si>
+  <si>
+    <t>COREN</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,7 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F262E5-69B0-4EE7-B06C-0FA00B13ACBA}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1072,7 @@
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1111,8 +1122,8 @@
       <c r="K17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>60</v>
+      <c r="L17" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>64</v>
@@ -1144,7 +1155,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>56</v>
@@ -1238,9 +1249,6 @@
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
